--- a/3MachineModel_v3_SG_IBR_IBR.xlsx
+++ b/3MachineModel_v3_SG_IBR_IBR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50524A0C-32FD-4615-8FA4-BB096C59BE9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7F958-AF28-4EA9-AACF-162F8F1D753E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1921,7 +1921,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2001,8 +2001,8 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <f>D10/50</f>
-        <v>1.8E-3</v>
+        <f>D10/100</f>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D10">
         <v>0.09</v>
@@ -2025,8 +2025,8 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f>D11/50</f>
-        <v>1.8E-3</v>
+        <f>D11/100</f>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D11">
         <v>0.09</v>
